--- a/output/part1/grs_size_bm_inv2.xlsx
+++ b/output/part1/grs_size_bm_inv2.xlsx
@@ -467,19 +467,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10.26353455181249</v>
+        <v>12.71976515605532</v>
       </c>
       <c r="C2" t="n">
         <v>1.110223024625157e-16</v>
       </c>
       <c r="D2" t="n">
-        <v>0.09153182999759862</v>
+        <v>0.009947741319881393</v>
       </c>
       <c r="E2" t="n">
-        <v>-33.68783055699946</v>
+        <v>1.463051787562091</v>
       </c>
       <c r="F2" t="n">
-        <v>1134.869927637106</v>
+        <v>2.140520533088629</v>
       </c>
     </row>
     <row r="3">
@@ -489,19 +489,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10.35410947331471</v>
+        <v>12.74248969159571</v>
       </c>
       <c r="C3" t="n">
         <v>1.110223024625157e-16</v>
       </c>
       <c r="D3" t="n">
-        <v>0.09212031560329972</v>
+        <v>0.009936579308624488</v>
       </c>
       <c r="E3" t="n">
-        <v>-33.90441973008397</v>
+        <v>1.461410148520918</v>
       </c>
       <c r="F3" t="n">
-        <v>1149.509677233707</v>
+        <v>2.135719622199932</v>
       </c>
     </row>
     <row r="4">
@@ -511,19 +511,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>12.73617676060823</v>
+        <v>13.33577442481397</v>
       </c>
       <c r="C4" t="n">
         <v>1.110223024625157e-16</v>
       </c>
       <c r="D4" t="n">
-        <v>0.09027900142891079</v>
+        <v>0.009445451835545612</v>
       </c>
       <c r="E4" t="n">
-        <v>-33.22673329127199</v>
+        <v>1.389178181051797</v>
       </c>
       <c r="F4" t="n">
-        <v>1104.015805209323</v>
+        <v>1.92981601871038</v>
       </c>
     </row>
     <row r="5">
@@ -533,19 +533,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>11.93906331996112</v>
+        <v>13.34703001737696</v>
       </c>
       <c r="C5" t="n">
         <v>1.110223024625157e-16</v>
       </c>
       <c r="D5" t="n">
-        <v>0.09756499081817674</v>
+        <v>0.009888440638458064</v>
       </c>
       <c r="E5" t="n">
-        <v>-35.90830511161172</v>
+        <v>1.454330212968403</v>
       </c>
       <c r="F5" t="n">
-        <v>1289.4063759886</v>
+        <v>2.115076368352721</v>
       </c>
     </row>
     <row r="6">
@@ -555,19 +555,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>12.97202793785404</v>
+        <v>13.34209866551272</v>
       </c>
       <c r="C6" t="n">
         <v>1.110223024625157e-16</v>
       </c>
       <c r="D6" t="n">
-        <v>0.09122985667197472</v>
+        <v>0.00943748391312205</v>
       </c>
       <c r="E6" t="n">
-        <v>-33.57669079035633</v>
+        <v>1.388006308686997</v>
       </c>
       <c r="F6" t="n">
-        <v>1127.394164431199</v>
+        <v>1.926561512954904</v>
       </c>
     </row>
   </sheetData>
